--- a/CumulativeTestsByTypeByCounty/2022-01-17.xlsx
+++ b/CumulativeTestsByTypeByCounty/2022-01-17.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>80912</v>
+        <v>81003</v>
       </c>
       <c r="C2" s="4">
         <v>2077</v>
       </c>
       <c r="D2" s="4">
-        <v>40980</v>
+        <v>41052</v>
       </c>
       <c r="E2" s="4">
-        <v>123969</v>
+        <v>124132</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>6305</v>
+        <v>6324</v>
       </c>
       <c r="C3" s="4">
         <v>335</v>
       </c>
       <c r="D3" s="4">
-        <v>6697</v>
+        <v>6711</v>
       </c>
       <c r="E3" s="4">
-        <v>13337</v>
+        <v>13370</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>82040</v>
+        <v>82211</v>
       </c>
       <c r="C4" s="4">
         <v>4467</v>
       </c>
       <c r="D4" s="4">
-        <v>81651</v>
+        <v>82174</v>
       </c>
       <c r="E4" s="4">
-        <v>168158</v>
+        <v>168852</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>17031</v>
+        <v>17134</v>
       </c>
       <c r="C5" s="4">
         <v>2907</v>
       </c>
       <c r="D5" s="4">
-        <v>14342</v>
+        <v>14364</v>
       </c>
       <c r="E5" s="4">
-        <v>34280</v>
+        <v>34405</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>4756</v>
+        <v>4769</v>
       </c>
       <c r="C6" s="4">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="D6" s="4">
-        <v>1831</v>
+        <v>1843</v>
       </c>
       <c r="E6" s="4">
-        <v>7460</v>
+        <v>7488</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1159,13 +1159,13 @@
         <v>1114</v>
       </c>
       <c r="C7" s="4">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D7" s="4">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="E7" s="4">
-        <v>3008</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>111486</v>
+        <v>112978</v>
       </c>
       <c r="C8" s="4">
         <v>1469</v>
       </c>
       <c r="D8" s="4">
-        <v>16695</v>
+        <v>16731</v>
       </c>
       <c r="E8" s="4">
-        <v>129650</v>
+        <v>131178</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>30794</v>
+        <v>30933</v>
       </c>
       <c r="C9" s="4">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="D9" s="4">
-        <v>5941</v>
+        <v>5983</v>
       </c>
       <c r="E9" s="4">
-        <v>38605</v>
+        <v>38787</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2746</v>
+        <v>2765</v>
       </c>
       <c r="C10" s="4">
         <v>99</v>
       </c>
       <c r="D10" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E10" s="4">
-        <v>4855</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>15104</v>
+        <v>15188</v>
       </c>
       <c r="C11" s="4">
         <v>843</v>
       </c>
       <c r="D11" s="4">
-        <v>9101</v>
+        <v>9146</v>
       </c>
       <c r="E11" s="4">
-        <v>25048</v>
+        <v>25177</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>101510</v>
+        <v>102766</v>
       </c>
       <c r="C12" s="4">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="D12" s="4">
-        <v>45926</v>
+        <v>46148</v>
       </c>
       <c r="E12" s="4">
-        <v>150010</v>
+        <v>151490</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,16 +1258,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>2240</v>
+        <v>2250</v>
       </c>
       <c r="C13" s="4">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="D13" s="4">
-        <v>4044</v>
+        <v>4076</v>
       </c>
       <c r="E13" s="4">
-        <v>6847</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>54552</v>
+        <v>54632</v>
       </c>
       <c r="C14" s="4">
-        <v>8285</v>
+        <v>8297</v>
       </c>
       <c r="D14" s="4">
-        <v>25025</v>
+        <v>25143</v>
       </c>
       <c r="E14" s="4">
-        <v>87862</v>
+        <v>88072</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>426332</v>
+        <v>427532</v>
       </c>
       <c r="C15" s="4">
         <v>15856</v>
       </c>
       <c r="D15" s="4">
-        <v>102972</v>
+        <v>103652</v>
       </c>
       <c r="E15" s="4">
-        <v>545160</v>
+        <v>547040</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>4438652</v>
+        <v>4469209</v>
       </c>
       <c r="C16" s="4">
-        <v>76926</v>
+        <v>77001</v>
       </c>
       <c r="D16" s="4">
-        <v>674044</v>
+        <v>678358</v>
       </c>
       <c r="E16" s="4">
-        <v>5189622</v>
+        <v>5224568</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>9664</v>
+        <v>9683</v>
       </c>
       <c r="C17" s="4">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D17" s="4">
-        <v>4782</v>
+        <v>4920</v>
       </c>
       <c r="E17" s="4">
-        <v>14987</v>
+        <v>15145</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>12683</v>
+        <v>12707</v>
       </c>
       <c r="C19" s="4">
         <v>600</v>
       </c>
       <c r="D19" s="4">
-        <v>9714</v>
+        <v>9721</v>
       </c>
       <c r="E19" s="4">
-        <v>22997</v>
+        <v>23028</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>91714</v>
+        <v>92082</v>
       </c>
       <c r="C20" s="4">
-        <v>10640</v>
+        <v>10641</v>
       </c>
       <c r="D20" s="4">
-        <v>38862</v>
+        <v>39103</v>
       </c>
       <c r="E20" s="4">
-        <v>141216</v>
+        <v>141826</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>616643</v>
+        <v>619194</v>
       </c>
       <c r="C21" s="4">
-        <v>26462</v>
+        <v>26482</v>
       </c>
       <c r="D21" s="4">
-        <v>126244</v>
+        <v>126803</v>
       </c>
       <c r="E21" s="4">
-        <v>769349</v>
+        <v>772479</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>470110</v>
+        <v>471386</v>
       </c>
       <c r="C22" s="4">
-        <v>13063</v>
+        <v>13065</v>
       </c>
       <c r="D22" s="4">
-        <v>53620</v>
+        <v>53823</v>
       </c>
       <c r="E22" s="4">
-        <v>536793</v>
+        <v>538274</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9436</v>
+        <v>9440</v>
       </c>
       <c r="C23" s="4">
         <v>176</v>
       </c>
       <c r="D23" s="4">
-        <v>3572</v>
+        <v>3574</v>
       </c>
       <c r="E23" s="4">
-        <v>13184</v>
+        <v>13190</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,16 +1445,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>1451</v>
+        <v>1474</v>
       </c>
       <c r="C24" s="4">
         <v>142</v>
       </c>
       <c r="D24" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E24" s="4">
-        <v>1803</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>25702</v>
+        <v>25718</v>
       </c>
       <c r="C25" s="4">
         <v>1883</v>
       </c>
       <c r="D25" s="4">
-        <v>6798</v>
+        <v>6804</v>
       </c>
       <c r="E25" s="4">
-        <v>34383</v>
+        <v>34405</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>27432</v>
+        <v>27592</v>
       </c>
       <c r="C26" s="4">
         <v>1262</v>
       </c>
       <c r="D26" s="4">
-        <v>44914</v>
+        <v>45377</v>
       </c>
       <c r="E26" s="4">
-        <v>73608</v>
+        <v>74231</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>27190</v>
+        <v>27302</v>
       </c>
       <c r="C27" s="4">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D27" s="4">
-        <v>7259</v>
+        <v>7302</v>
       </c>
       <c r="E27" s="4">
-        <v>35299</v>
+        <v>35456</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>60721</v>
+        <v>60828</v>
       </c>
       <c r="C28" s="4">
         <v>2457</v>
       </c>
       <c r="D28" s="4">
-        <v>15050</v>
+        <v>15222</v>
       </c>
       <c r="E28" s="4">
-        <v>78228</v>
+        <v>78507</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>64371</v>
+        <v>64759</v>
       </c>
       <c r="C29" s="4">
         <v>2247</v>
       </c>
       <c r="D29" s="4">
-        <v>18191</v>
+        <v>18567</v>
       </c>
       <c r="E29" s="4">
-        <v>84809</v>
+        <v>85573</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>21610</v>
+        <v>21702</v>
       </c>
       <c r="C30" s="4">
         <v>2290</v>
       </c>
       <c r="D30" s="4">
-        <v>15258</v>
+        <v>15301</v>
       </c>
       <c r="E30" s="4">
-        <v>39158</v>
+        <v>39293</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>7343</v>
+        <v>7361</v>
       </c>
       <c r="C31" s="4">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D31" s="4">
-        <v>12404</v>
+        <v>12503</v>
       </c>
       <c r="E31" s="4">
-        <v>20087</v>
+        <v>20205</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>455327</v>
+        <v>456800</v>
       </c>
       <c r="C32" s="4">
-        <v>11692</v>
+        <v>11696</v>
       </c>
       <c r="D32" s="4">
-        <v>158662</v>
+        <v>159199</v>
       </c>
       <c r="E32" s="4">
-        <v>625681</v>
+        <v>627695</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>9985</v>
+        <v>9996</v>
       </c>
       <c r="C33" s="4">
         <v>553</v>
       </c>
       <c r="D33" s="4">
-        <v>4182</v>
+        <v>4188</v>
       </c>
       <c r="E33" s="4">
-        <v>14720</v>
+        <v>14737</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>3132</v>
+        <v>3141</v>
       </c>
       <c r="C34" s="4">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="D34" s="4">
         <v>1636</v>
       </c>
       <c r="E34" s="4">
-        <v>5895</v>
+        <v>5907</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>20036</v>
+        <v>20089</v>
       </c>
       <c r="C35" s="4">
         <v>3366</v>
       </c>
       <c r="D35" s="4">
-        <v>13592</v>
+        <v>13679</v>
       </c>
       <c r="E35" s="4">
-        <v>36994</v>
+        <v>37134</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>8419</v>
+        <v>8561</v>
       </c>
       <c r="C36" s="4">
         <v>444</v>
       </c>
       <c r="D36" s="4">
-        <v>3768</v>
+        <v>3792</v>
       </c>
       <c r="E36" s="4">
-        <v>12631</v>
+        <v>12797</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>14992</v>
+        <v>15017</v>
       </c>
       <c r="C37" s="4">
         <v>912</v>
       </c>
       <c r="D37" s="4">
-        <v>3811</v>
+        <v>3823</v>
       </c>
       <c r="E37" s="4">
-        <v>19715</v>
+        <v>19752</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>38703</v>
+        <v>38793</v>
       </c>
       <c r="C38" s="4">
         <v>1299</v>
       </c>
       <c r="D38" s="4">
-        <v>32887</v>
+        <v>32961</v>
       </c>
       <c r="E38" s="4">
-        <v>72889</v>
+        <v>73053</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>7606</v>
+        <v>7612</v>
       </c>
       <c r="C39" s="4">
         <v>477</v>
       </c>
       <c r="D39" s="4">
-        <v>6642</v>
+        <v>6657</v>
       </c>
       <c r="E39" s="4">
-        <v>14725</v>
+        <v>14746</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>6994</v>
+        <v>7013</v>
       </c>
       <c r="C40" s="4">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="D40" s="4">
-        <v>5889</v>
+        <v>5914</v>
       </c>
       <c r="E40" s="4">
-        <v>13594</v>
+        <v>13649</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,16 +1734,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>1821</v>
+        <v>1825</v>
       </c>
       <c r="C41" s="4">
         <v>29</v>
       </c>
       <c r="D41" s="4">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E41" s="4">
-        <v>2321</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="C42" s="4">
         <v>62</v>
       </c>
       <c r="D42" s="4">
-        <v>3601</v>
+        <v>3603</v>
       </c>
       <c r="E42" s="4">
-        <v>6683</v>
+        <v>6686</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>4717</v>
+        <v>4728</v>
       </c>
       <c r="C43" s="4">
         <v>176</v>
       </c>
       <c r="D43" s="4">
-        <v>5383</v>
+        <v>5405</v>
       </c>
       <c r="E43" s="4">
-        <v>10276</v>
+        <v>10309</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1691770</v>
+        <v>1700957</v>
       </c>
       <c r="C44" s="4">
-        <v>112978</v>
+        <v>113097</v>
       </c>
       <c r="D44" s="4">
-        <v>339907</v>
+        <v>343779</v>
       </c>
       <c r="E44" s="4">
-        <v>2144655</v>
+        <v>2157833</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>2057</v>
+        <v>2069</v>
       </c>
       <c r="C45" s="4">
         <v>144</v>
       </c>
       <c r="D45" s="4">
-        <v>3286</v>
+        <v>3359</v>
       </c>
       <c r="E45" s="4">
-        <v>5487</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>19850</v>
+        <v>19933</v>
       </c>
       <c r="C46" s="4">
         <v>1218</v>
       </c>
       <c r="D46" s="4">
-        <v>10649</v>
+        <v>10665</v>
       </c>
       <c r="E46" s="4">
-        <v>31717</v>
+        <v>31816</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>198837</v>
+        <v>199868</v>
       </c>
       <c r="C47" s="4">
-        <v>12845</v>
+        <v>12849</v>
       </c>
       <c r="D47" s="4">
-        <v>56552</v>
+        <v>56847</v>
       </c>
       <c r="E47" s="4">
-        <v>268234</v>
+        <v>269564</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>11680</v>
+        <v>11738</v>
       </c>
       <c r="C48" s="4">
         <v>381</v>
       </c>
       <c r="D48" s="4">
-        <v>6617</v>
+        <v>6717</v>
       </c>
       <c r="E48" s="4">
-        <v>18678</v>
+        <v>18836</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="C49" s="4">
         <v>38</v>
       </c>
       <c r="D49" s="4">
-        <v>4626</v>
+        <v>4635</v>
       </c>
       <c r="E49" s="4">
-        <v>7166</v>
+        <v>7176</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>33773</v>
+        <v>33844</v>
       </c>
       <c r="C50" s="4">
         <v>2338</v>
       </c>
       <c r="D50" s="4">
-        <v>13289</v>
+        <v>13318</v>
       </c>
       <c r="E50" s="4">
-        <v>49400</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>140181</v>
+        <v>140901</v>
       </c>
       <c r="C51" s="4">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="D51" s="4">
-        <v>31572</v>
+        <v>31749</v>
       </c>
       <c r="E51" s="4">
-        <v>174222</v>
+        <v>175120</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,16 +1921,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C52" s="4">
         <v>75</v>
       </c>
       <c r="D52" s="4">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E52" s="4">
-        <v>2507</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>5007</v>
+        <v>5013</v>
       </c>
       <c r="C53" s="4">
         <v>96</v>
       </c>
       <c r="D53" s="4">
-        <v>4324</v>
+        <v>4340</v>
       </c>
       <c r="E53" s="4">
-        <v>9427</v>
+        <v>9449</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1961,10 +1961,10 @@
         <v>27</v>
       </c>
       <c r="D54" s="4">
-        <v>5109</v>
+        <v>5110</v>
       </c>
       <c r="E54" s="4">
-        <v>6357</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>3926</v>
+        <v>3940</v>
       </c>
       <c r="C55" s="4">
         <v>76</v>
       </c>
       <c r="D55" s="4">
-        <v>3975</v>
+        <v>4012</v>
       </c>
       <c r="E55" s="4">
-        <v>7977</v>
+        <v>8028</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,16 +1989,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2960</v>
+        <v>2978</v>
       </c>
       <c r="C56" s="4">
         <v>42</v>
       </c>
       <c r="D56" s="4">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E56" s="4">
-        <v>3432</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>3927</v>
+        <v>3929</v>
       </c>
       <c r="C57" s="4">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D57" s="4">
         <v>3920</v>
       </c>
       <c r="E57" s="4">
-        <v>8428</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>4072610</v>
+        <v>4090450</v>
       </c>
       <c r="C58" s="4">
-        <v>168698</v>
+        <v>168886</v>
       </c>
       <c r="D58" s="4">
-        <v>669103</v>
+        <v>675386</v>
       </c>
       <c r="E58" s="4">
-        <v>4910411</v>
+        <v>4934722</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>12013</v>
+        <v>12036</v>
       </c>
       <c r="C59" s="4">
         <v>609</v>
       </c>
       <c r="D59" s="4">
-        <v>6121</v>
+        <v>6134</v>
       </c>
       <c r="E59" s="4">
-        <v>18743</v>
+        <v>18779</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>16116</v>
+        <v>16161</v>
       </c>
       <c r="C60" s="4">
         <v>633</v>
       </c>
       <c r="D60" s="4">
-        <v>7978</v>
+        <v>7984</v>
       </c>
       <c r="E60" s="4">
-        <v>24727</v>
+        <v>24778</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>8126</v>
+        <v>8140</v>
       </c>
       <c r="C61" s="4">
-        <v>1270</v>
+        <v>1283</v>
       </c>
       <c r="D61" s="4">
-        <v>6672</v>
+        <v>6679</v>
       </c>
       <c r="E61" s="4">
-        <v>16068</v>
+        <v>16102</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>3203</v>
+        <v>3218</v>
       </c>
       <c r="C62" s="4">
         <v>261</v>
       </c>
       <c r="D62" s="4">
-        <v>3141</v>
+        <v>3286</v>
       </c>
       <c r="E62" s="4">
-        <v>6605</v>
+        <v>6765</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>998160</v>
+        <v>1002622</v>
       </c>
       <c r="C63" s="4">
-        <v>82358</v>
+        <v>82406</v>
       </c>
       <c r="D63" s="4">
-        <v>276815</v>
+        <v>279340</v>
       </c>
       <c r="E63" s="4">
-        <v>1357333</v>
+        <v>1364368</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,16 +2125,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="C64" s="4">
         <v>22</v>
       </c>
       <c r="D64" s="4">
-        <v>1107</v>
+        <v>1130</v>
       </c>
       <c r="E64" s="4">
-        <v>2025</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>30776</v>
+        <v>30957</v>
       </c>
       <c r="C65" s="4">
         <v>137</v>
       </c>
       <c r="D65" s="4">
-        <v>43472</v>
+        <v>43552</v>
       </c>
       <c r="E65" s="4">
-        <v>74385</v>
+        <v>74646</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>2171</v>
+        <v>2174</v>
       </c>
       <c r="C66" s="4">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D66" s="4">
-        <v>2359</v>
+        <v>2362</v>
       </c>
       <c r="E66" s="4">
-        <v>5031</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>24916</v>
+        <v>24951</v>
       </c>
       <c r="C67" s="4">
-        <v>3432</v>
+        <v>3434</v>
       </c>
       <c r="D67" s="4">
-        <v>12595</v>
+        <v>12633</v>
       </c>
       <c r="E67" s="4">
-        <v>40943</v>
+        <v>41018</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>7834</v>
+        <v>7863</v>
       </c>
       <c r="C68" s="4">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D68" s="4">
-        <v>9560</v>
+        <v>9606</v>
       </c>
       <c r="E68" s="4">
-        <v>17919</v>
+        <v>17996</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>98473</v>
+        <v>98963</v>
       </c>
       <c r="C69" s="4">
         <v>6493</v>
       </c>
       <c r="D69" s="4">
-        <v>70288</v>
+        <v>70810</v>
       </c>
       <c r="E69" s="4">
-        <v>175254</v>
+        <v>176266</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="C70" s="4">
         <v>43</v>
       </c>
       <c r="D70" s="4">
-        <v>932</v>
+        <v>951</v>
       </c>
       <c r="E70" s="4">
-        <v>2448</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1317938</v>
+        <v>1323402</v>
       </c>
       <c r="C71" s="4">
-        <v>23315</v>
+        <v>23327</v>
       </c>
       <c r="D71" s="4">
-        <v>635191</v>
+        <v>636461</v>
       </c>
       <c r="E71" s="4">
-        <v>1976444</v>
+        <v>1983190</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>266142</v>
+        <v>267082</v>
       </c>
       <c r="C72" s="4">
-        <v>9666</v>
+        <v>9682</v>
       </c>
       <c r="D72" s="4">
-        <v>60033</v>
+        <v>60579</v>
       </c>
       <c r="E72" s="4">
-        <v>335841</v>
+        <v>337343</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>34428</v>
+        <v>34571</v>
       </c>
       <c r="C73" s="4">
         <v>2102</v>
       </c>
       <c r="D73" s="4">
-        <v>14875</v>
+        <v>15006</v>
       </c>
       <c r="E73" s="4">
-        <v>51405</v>
+        <v>51679</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>18904</v>
+        <v>18922</v>
       </c>
       <c r="C74" s="4">
         <v>488</v>
       </c>
       <c r="D74" s="4">
-        <v>10184</v>
+        <v>10232</v>
       </c>
       <c r="E74" s="4">
-        <v>29576</v>
+        <v>29642</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>45833</v>
+        <v>46026</v>
       </c>
       <c r="C75" s="4">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D75" s="4">
-        <v>12463</v>
+        <v>12495</v>
       </c>
       <c r="E75" s="4">
-        <v>59433</v>
+        <v>59660</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>24060</v>
+        <v>24141</v>
       </c>
       <c r="C76" s="4">
         <v>1046</v>
       </c>
       <c r="D76" s="4">
-        <v>7983</v>
+        <v>8008</v>
       </c>
       <c r="E76" s="4">
-        <v>33089</v>
+        <v>33195</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2352,10 +2352,10 @@
         <v>44</v>
       </c>
       <c r="D77" s="4">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E77" s="4">
-        <v>2633</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>5193</v>
+        <v>5226</v>
       </c>
       <c r="C78" s="4">
         <v>176</v>
       </c>
       <c r="D78" s="4">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="E78" s="4">
-        <v>6269</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2380,16 +2380,16 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="C79" s="4">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="D79" s="4">
-        <v>1851</v>
+        <v>1874</v>
       </c>
       <c r="E79" s="4">
-        <v>2707</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1258554</v>
+        <v>1265046</v>
       </c>
       <c r="C80" s="4">
-        <v>51355</v>
+        <v>51397</v>
       </c>
       <c r="D80" s="4">
-        <v>180032</v>
+        <v>181463</v>
       </c>
       <c r="E80" s="4">
-        <v>1489941</v>
+        <v>1497906</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>7443</v>
+        <v>7466</v>
       </c>
       <c r="C81" s="4">
         <v>608</v>
       </c>
       <c r="D81" s="4">
-        <v>1988</v>
+        <v>1994</v>
       </c>
       <c r="E81" s="4">
-        <v>10039</v>
+        <v>10068</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>24798</v>
+        <v>24898</v>
       </c>
       <c r="C82" s="4">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D82" s="4">
-        <v>21138</v>
+        <v>21241</v>
       </c>
       <c r="E82" s="4">
-        <v>46782</v>
+        <v>46986</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>34208</v>
+        <v>34312</v>
       </c>
       <c r="C83" s="4">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D83" s="4">
-        <v>9970</v>
+        <v>9977</v>
       </c>
       <c r="E83" s="4">
-        <v>44758</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>5438</v>
+        <v>5445</v>
       </c>
       <c r="C84" s="4">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D84" s="4">
-        <v>2382</v>
+        <v>2384</v>
       </c>
       <c r="E84" s="4">
-        <v>8127</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>658485</v>
+        <v>660846</v>
       </c>
       <c r="C85" s="4">
-        <v>27108</v>
+        <v>27128</v>
       </c>
       <c r="D85" s="4">
-        <v>107095</v>
+        <v>107712</v>
       </c>
       <c r="E85" s="4">
-        <v>792688</v>
+        <v>795686</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>4257</v>
+        <v>4275</v>
       </c>
       <c r="C86" s="4">
         <v>73</v>
       </c>
       <c r="D86" s="4">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="E86" s="4">
-        <v>6200</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>22633</v>
+        <v>22686</v>
       </c>
       <c r="C87" s="4">
         <v>1054</v>
       </c>
       <c r="D87" s="4">
-        <v>11969</v>
+        <v>12064</v>
       </c>
       <c r="E87" s="4">
-        <v>35656</v>
+        <v>35804</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2539,10 +2539,10 @@
         <v>53</v>
       </c>
       <c r="D88" s="4">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E88" s="4">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>4910</v>
+        <v>4937</v>
       </c>
       <c r="C89" s="4">
         <v>359</v>
       </c>
       <c r="D89" s="4">
-        <v>3905</v>
+        <v>3914</v>
       </c>
       <c r="E89" s="4">
-        <v>9174</v>
+        <v>9210</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>17883</v>
+        <v>17938</v>
       </c>
       <c r="C90" s="4">
         <v>527</v>
       </c>
       <c r="D90" s="4">
-        <v>11725</v>
+        <v>11782</v>
       </c>
       <c r="E90" s="4">
-        <v>30135</v>
+        <v>30247</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>13800</v>
+        <v>13818</v>
       </c>
       <c r="C91" s="4">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="D91" s="4">
-        <v>12057</v>
+        <v>12072</v>
       </c>
       <c r="E91" s="4">
-        <v>27209</v>
+        <v>27246</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>176380</v>
+        <v>177017</v>
       </c>
       <c r="C92" s="4">
-        <v>6261</v>
+        <v>6266</v>
       </c>
       <c r="D92" s="4">
-        <v>52023</v>
+        <v>52204</v>
       </c>
       <c r="E92" s="4">
-        <v>234664</v>
+        <v>235487</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>83752</v>
+        <v>84045</v>
       </c>
       <c r="C93" s="4">
-        <v>12287</v>
+        <v>12291</v>
       </c>
       <c r="D93" s="4">
-        <v>47738</v>
+        <v>48076</v>
       </c>
       <c r="E93" s="4">
-        <v>143777</v>
+        <v>144412</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>58799</v>
+        <v>58945</v>
       </c>
       <c r="C94" s="4">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D94" s="4">
-        <v>15083</v>
+        <v>15164</v>
       </c>
       <c r="E94" s="4">
-        <v>75385</v>
+        <v>75613</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>156331</v>
+        <v>157248</v>
       </c>
       <c r="C95" s="4">
         <v>6235</v>
       </c>
       <c r="D95" s="4">
-        <v>50279</v>
+        <v>50648</v>
       </c>
       <c r="E95" s="4">
-        <v>212845</v>
+        <v>214131</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>33037</v>
+        <v>33133</v>
       </c>
       <c r="C96" s="4">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D96" s="4">
-        <v>8715</v>
+        <v>8777</v>
       </c>
       <c r="E96" s="4">
-        <v>42292</v>
+        <v>42451</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>2439</v>
+        <v>2443</v>
       </c>
       <c r="C97" s="4">
         <v>80</v>
       </c>
       <c r="D97" s="4">
-        <v>3305</v>
+        <v>3358</v>
       </c>
       <c r="E97" s="4">
-        <v>5824</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>11496</v>
+        <v>11530</v>
       </c>
       <c r="C98" s="4">
         <v>473</v>
       </c>
       <c r="D98" s="4">
-        <v>4336</v>
+        <v>4340</v>
       </c>
       <c r="E98" s="4">
-        <v>16305</v>
+        <v>16343</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>2034</v>
+        <v>2039</v>
       </c>
       <c r="C99" s="4">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="D99" s="4">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="E99" s="4">
-        <v>6444</v>
+        <v>6452</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2607</v>
+        <v>2614</v>
       </c>
       <c r="C100" s="4">
         <v>323</v>
       </c>
       <c r="D100" s="4">
-        <v>3564</v>
+        <v>3600</v>
       </c>
       <c r="E100" s="4">
-        <v>6494</v>
+        <v>6537</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>44279</v>
+        <v>44400</v>
       </c>
       <c r="C101" s="4">
-        <v>4502</v>
+        <v>4506</v>
       </c>
       <c r="D101" s="4">
-        <v>26966</v>
+        <v>27131</v>
       </c>
       <c r="E101" s="4">
-        <v>75747</v>
+        <v>76037</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>7743135</v>
+        <v>7778834</v>
       </c>
       <c r="C102" s="4">
-        <v>279059</v>
+        <v>279262</v>
       </c>
       <c r="D102" s="4">
-        <v>1141321</v>
+        <v>1147798</v>
       </c>
       <c r="E102" s="4">
-        <v>9163515</v>
+        <v>9205894</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>86518</v>
+        <v>86721</v>
       </c>
       <c r="C103" s="4">
-        <v>9323</v>
+        <v>9327</v>
       </c>
       <c r="D103" s="4">
-        <v>33281</v>
+        <v>33501</v>
       </c>
       <c r="E103" s="4">
-        <v>129122</v>
+        <v>129549</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2808,13 +2808,13 @@
         <v>229</v>
       </c>
       <c r="C104" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D104" s="4">
         <v>278</v>
       </c>
       <c r="E104" s="4">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="C105" s="4">
         <v>48</v>
       </c>
       <c r="D105" s="4">
-        <v>3721</v>
+        <v>3751</v>
       </c>
       <c r="E105" s="4">
-        <v>5702</v>
+        <v>5734</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>469849</v>
+        <v>472084</v>
       </c>
       <c r="C106" s="4">
-        <v>17152</v>
+        <v>17158</v>
       </c>
       <c r="D106" s="4">
-        <v>62502</v>
+        <v>63114</v>
       </c>
       <c r="E106" s="4">
-        <v>549503</v>
+        <v>552356</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>50042</v>
+        <v>50209</v>
       </c>
       <c r="C108" s="4">
         <v>3288</v>
       </c>
       <c r="D108" s="4">
-        <v>29684</v>
+        <v>29775</v>
       </c>
       <c r="E108" s="4">
-        <v>83014</v>
+        <v>83272</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>851966</v>
+        <v>854896</v>
       </c>
       <c r="C109" s="4">
-        <v>21836</v>
+        <v>21855</v>
       </c>
       <c r="D109" s="4">
-        <v>415990</v>
+        <v>416563</v>
       </c>
       <c r="E109" s="4">
-        <v>1289792</v>
+        <v>1293314</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>42937</v>
+        <v>43069</v>
       </c>
       <c r="C110" s="4">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D110" s="4">
-        <v>19647</v>
+        <v>19710</v>
       </c>
       <c r="E110" s="4">
-        <v>63886</v>
+        <v>64082</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>19186</v>
+        <v>19232</v>
       </c>
       <c r="C111" s="4">
         <v>261</v>
       </c>
       <c r="D111" s="4">
-        <v>7133</v>
+        <v>7148</v>
       </c>
       <c r="E111" s="4">
-        <v>26580</v>
+        <v>26641</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>57496</v>
+        <v>57705</v>
       </c>
       <c r="C112" s="4">
         <v>3296</v>
       </c>
       <c r="D112" s="4">
-        <v>45802</v>
+        <v>45853</v>
       </c>
       <c r="E112" s="4">
-        <v>106594</v>
+        <v>106854</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>28268</v>
+        <v>28345</v>
       </c>
       <c r="C113" s="4">
         <v>2150</v>
       </c>
       <c r="D113" s="4">
-        <v>15218</v>
+        <v>15303</v>
       </c>
       <c r="E113" s="4">
-        <v>45636</v>
+        <v>45798</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>21474</v>
+        <v>21489</v>
       </c>
       <c r="C114" s="4">
         <v>701</v>
       </c>
       <c r="D114" s="4">
-        <v>11866</v>
+        <v>11894</v>
       </c>
       <c r="E114" s="4">
-        <v>34041</v>
+        <v>34084</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>23233</v>
+        <v>23253</v>
       </c>
       <c r="C115" s="4">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="D115" s="4">
-        <v>19727</v>
+        <v>20135</v>
       </c>
       <c r="E115" s="4">
-        <v>43901</v>
+        <v>44331</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>3445</v>
+        <v>3451</v>
       </c>
       <c r="C116" s="4">
         <v>52</v>
       </c>
       <c r="D116" s="4">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="E116" s="4">
-        <v>5273</v>
+        <v>5281</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>135769</v>
+        <v>136394</v>
       </c>
       <c r="C117" s="4">
-        <v>5211</v>
+        <v>5220</v>
       </c>
       <c r="D117" s="4">
-        <v>49781</v>
+        <v>50126</v>
       </c>
       <c r="E117" s="4">
-        <v>190761</v>
+        <v>191740</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>13753</v>
+        <v>13845</v>
       </c>
       <c r="C118" s="4">
-        <v>1852</v>
+        <v>1856</v>
       </c>
       <c r="D118" s="4">
-        <v>10689</v>
+        <v>10696</v>
       </c>
       <c r="E118" s="4">
-        <v>26294</v>
+        <v>26397</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C119" s="4">
         <v>26</v>
       </c>
       <c r="D119" s="4">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E119" s="4">
-        <v>1493</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>5195</v>
+        <v>5277</v>
       </c>
       <c r="C120" s="4">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D120" s="4">
-        <v>1999</v>
+        <v>2011</v>
       </c>
       <c r="E120" s="4">
-        <v>7475</v>
+        <v>7571</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>11273</v>
+        <v>11295</v>
       </c>
       <c r="C121" s="4">
         <v>555</v>
       </c>
       <c r="D121" s="4">
-        <v>6061</v>
+        <v>6067</v>
       </c>
       <c r="E121" s="4">
-        <v>17889</v>
+        <v>17917</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>28965</v>
+        <v>29075</v>
       </c>
       <c r="C122" s="4">
-        <v>3131</v>
+        <v>3133</v>
       </c>
       <c r="D122" s="4">
-        <v>16464</v>
+        <v>16504</v>
       </c>
       <c r="E122" s="4">
-        <v>48560</v>
+        <v>48712</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,7 +3128,7 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C123" s="4">
         <v>58</v>
@@ -3137,7 +3137,7 @@
         <v>385</v>
       </c>
       <c r="E123" s="4">
-        <v>2458</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>244377</v>
+        <v>244940</v>
       </c>
       <c r="C124" s="4">
-        <v>16519</v>
+        <v>16523</v>
       </c>
       <c r="D124" s="4">
-        <v>107010</v>
+        <v>107538</v>
       </c>
       <c r="E124" s="4">
-        <v>367906</v>
+        <v>369001</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>15097</v>
+        <v>15106</v>
       </c>
       <c r="C125" s="4">
         <v>768</v>
       </c>
       <c r="D125" s="4">
-        <v>15766</v>
+        <v>15890</v>
       </c>
       <c r="E125" s="4">
-        <v>31631</v>
+        <v>31764</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>81914</v>
+        <v>82071</v>
       </c>
       <c r="C126" s="4">
-        <v>11117</v>
+        <v>11120</v>
       </c>
       <c r="D126" s="4">
-        <v>36406</v>
+        <v>36761</v>
       </c>
       <c r="E126" s="4">
-        <v>129437</v>
+        <v>129952</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>202722</v>
+        <v>203654</v>
       </c>
       <c r="C127" s="4">
-        <v>9284</v>
+        <v>9294</v>
       </c>
       <c r="D127" s="4">
-        <v>52584</v>
+        <v>53035</v>
       </c>
       <c r="E127" s="4">
-        <v>264590</v>
+        <v>265983</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>11264</v>
+        <v>11305</v>
       </c>
       <c r="C128" s="4">
         <v>245</v>
       </c>
       <c r="D128" s="4">
-        <v>9593</v>
+        <v>9682</v>
       </c>
       <c r="E128" s="4">
-        <v>21102</v>
+        <v>21232</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>22339</v>
+        <v>22375</v>
       </c>
       <c r="C129" s="4">
         <v>588</v>
       </c>
       <c r="D129" s="4">
-        <v>13678</v>
+        <v>13705</v>
       </c>
       <c r="E129" s="4">
-        <v>36605</v>
+        <v>36668</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>181761</v>
+        <v>182649</v>
       </c>
       <c r="C130" s="4">
-        <v>7289</v>
+        <v>7296</v>
       </c>
       <c r="D130" s="4">
-        <v>56025</v>
+        <v>56376</v>
       </c>
       <c r="E130" s="4">
-        <v>245075</v>
+        <v>246321</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>44565</v>
+        <v>44725</v>
       </c>
       <c r="C131" s="4">
         <v>2925</v>
       </c>
       <c r="D131" s="4">
-        <v>22933</v>
+        <v>22997</v>
       </c>
       <c r="E131" s="4">
-        <v>70423</v>
+        <v>70647</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3281,7 +3281,7 @@
         <v>135</v>
       </c>
       <c r="B132" s="4">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C132" s="4">
         <v>52</v>
@@ -3290,7 +3290,7 @@
         <v>112</v>
       </c>
       <c r="E132" s="4">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3304,10 +3304,10 @@
         <v>0</v>
       </c>
       <c r="D133" s="4">
-        <v>1770</v>
+        <v>1775</v>
       </c>
       <c r="E133" s="4">
-        <v>2088</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>47544</v>
+        <v>47690</v>
       </c>
       <c r="C134" s="4">
         <v>2058</v>
       </c>
       <c r="D134" s="4">
-        <v>47667</v>
+        <v>48195</v>
       </c>
       <c r="E134" s="4">
-        <v>97269</v>
+        <v>97943</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>2327</v>
+        <v>2349</v>
       </c>
       <c r="C135" s="4">
         <v>72</v>
       </c>
       <c r="D135" s="4">
-        <v>1453</v>
+        <v>1496</v>
       </c>
       <c r="E135" s="4">
-        <v>3852</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3349,7 +3349,7 @@
         <v>139</v>
       </c>
       <c r="B136" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C136" s="4">
         <v>8</v>
@@ -3358,7 +3358,7 @@
         <v>50</v>
       </c>
       <c r="E136" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137" ht="14" customHeight="1">
@@ -3366,16 +3366,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>3385</v>
+        <v>3390</v>
       </c>
       <c r="C137" s="4">
         <v>58</v>
       </c>
       <c r="D137" s="4">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="E137" s="4">
-        <v>4260</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>40917</v>
+        <v>41070</v>
       </c>
       <c r="C138" s="4">
         <v>5504</v>
       </c>
       <c r="D138" s="4">
-        <v>18338</v>
+        <v>18412</v>
       </c>
       <c r="E138" s="4">
-        <v>64759</v>
+        <v>64986</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3400,16 +3400,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="C139" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D139" s="4">
-        <v>6463</v>
+        <v>6470</v>
       </c>
       <c r="E139" s="4">
-        <v>7716</v>
+        <v>7727</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>12926</v>
+        <v>13022</v>
       </c>
       <c r="C140" s="4">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D140" s="4">
-        <v>5689</v>
+        <v>5839</v>
       </c>
       <c r="E140" s="4">
-        <v>18942</v>
+        <v>19189</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>31854</v>
+        <v>31934</v>
       </c>
       <c r="C141" s="4">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="D141" s="4">
-        <v>21174</v>
+        <v>21813</v>
       </c>
       <c r="E141" s="4">
-        <v>56021</v>
+        <v>56741</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>9387</v>
+        <v>9406</v>
       </c>
       <c r="C142" s="4">
         <v>183</v>
       </c>
       <c r="D142" s="4">
-        <v>10414</v>
+        <v>10445</v>
       </c>
       <c r="E142" s="4">
-        <v>19984</v>
+        <v>20034</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>30104</v>
+        <v>30132</v>
       </c>
       <c r="C143" s="4">
         <v>791</v>
       </c>
       <c r="D143" s="4">
-        <v>8382</v>
+        <v>8405</v>
       </c>
       <c r="E143" s="4">
-        <v>39277</v>
+        <v>39328</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>19245</v>
+        <v>19321</v>
       </c>
       <c r="C144" s="4">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D144" s="4">
-        <v>15271</v>
+        <v>15279</v>
       </c>
       <c r="E144" s="4">
-        <v>35869</v>
+        <v>35954</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>13520</v>
+        <v>13580</v>
       </c>
       <c r="C145" s="4">
         <v>474</v>
       </c>
       <c r="D145" s="4">
-        <v>6938</v>
+        <v>7000</v>
       </c>
       <c r="E145" s="4">
-        <v>20932</v>
+        <v>21054</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>17223</v>
+        <v>17263</v>
       </c>
       <c r="C146" s="4">
         <v>854</v>
       </c>
       <c r="D146" s="4">
-        <v>7588</v>
+        <v>7618</v>
       </c>
       <c r="E146" s="4">
-        <v>25665</v>
+        <v>25735</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>94737</v>
+        <v>95026</v>
       </c>
       <c r="C147" s="4">
-        <v>4757</v>
+        <v>4759</v>
       </c>
       <c r="D147" s="4">
-        <v>26474</v>
+        <v>26637</v>
       </c>
       <c r="E147" s="4">
-        <v>125968</v>
+        <v>126422</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>40430</v>
+        <v>40570</v>
       </c>
       <c r="C148" s="4">
         <v>788</v>
       </c>
       <c r="D148" s="4">
-        <v>37954</v>
+        <v>38224</v>
       </c>
       <c r="E148" s="4">
-        <v>79172</v>
+        <v>79582</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3570,16 +3570,16 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C149" s="4">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D149" s="4">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E149" s="4">
-        <v>1733</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>9524</v>
+        <v>9543</v>
       </c>
       <c r="C150" s="4">
         <v>1340</v>
       </c>
       <c r="D150" s="4">
-        <v>7103</v>
+        <v>7105</v>
       </c>
       <c r="E150" s="4">
-        <v>17967</v>
+        <v>17988</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>19179</v>
+        <v>19193</v>
       </c>
       <c r="C151" s="4">
         <v>644</v>
       </c>
       <c r="D151" s="4">
-        <v>5164</v>
+        <v>5185</v>
       </c>
       <c r="E151" s="4">
-        <v>24987</v>
+        <v>25022</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3621,16 +3621,16 @@
         <v>155</v>
       </c>
       <c r="B152" s="4">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C152" s="4">
         <v>5</v>
       </c>
       <c r="D152" s="4">
-        <v>8494</v>
+        <v>8495</v>
       </c>
       <c r="E152" s="4">
-        <v>8757</v>
+        <v>8759</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>355463</v>
+        <v>357341</v>
       </c>
       <c r="C153" s="4">
-        <v>12198</v>
+        <v>12199</v>
       </c>
       <c r="D153" s="4">
-        <v>179174</v>
+        <v>180173</v>
       </c>
       <c r="E153" s="4">
-        <v>546835</v>
+        <v>549713</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>4447</v>
+        <v>4467</v>
       </c>
       <c r="C154" s="4">
         <v>181</v>
       </c>
       <c r="D154" s="4">
-        <v>4190</v>
+        <v>4199</v>
       </c>
       <c r="E154" s="4">
-        <v>8818</v>
+        <v>8847</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>20107</v>
+        <v>20149</v>
       </c>
       <c r="C155" s="4">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D155" s="4">
-        <v>6959</v>
+        <v>6967</v>
       </c>
       <c r="E155" s="4">
-        <v>27478</v>
+        <v>27532</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>4194</v>
+        <v>4206</v>
       </c>
       <c r="C156" s="4">
         <v>868</v>
       </c>
       <c r="D156" s="4">
-        <v>3889</v>
+        <v>3902</v>
       </c>
       <c r="E156" s="4">
-        <v>8951</v>
+        <v>8976</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="C157" s="4">
         <v>272</v>
       </c>
       <c r="D157" s="4">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="E157" s="4">
-        <v>3599</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>2589</v>
+        <v>2592</v>
       </c>
       <c r="C158" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D158" s="4">
-        <v>1963</v>
+        <v>2033</v>
       </c>
       <c r="E158" s="4">
-        <v>4672</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>50310</v>
+        <v>50504</v>
       </c>
       <c r="C159" s="4">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="D159" s="4">
-        <v>8164</v>
+        <v>8173</v>
       </c>
       <c r="E159" s="4">
-        <v>60467</v>
+        <v>60672</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>95037</v>
+        <v>95425</v>
       </c>
       <c r="C160" s="4">
         <v>521</v>
       </c>
       <c r="D160" s="4">
-        <v>27857</v>
+        <v>27867</v>
       </c>
       <c r="E160" s="4">
-        <v>123415</v>
+        <v>123813</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>3822</v>
+        <v>3830</v>
       </c>
       <c r="C161" s="4">
         <v>94</v>
       </c>
       <c r="D161" s="4">
-        <v>4307</v>
+        <v>4392</v>
       </c>
       <c r="E161" s="4">
-        <v>8223</v>
+        <v>8316</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>429513</v>
+        <v>430378</v>
       </c>
       <c r="C162" s="4">
-        <v>13304</v>
+        <v>13311</v>
       </c>
       <c r="D162" s="4">
-        <v>156603</v>
+        <v>157939</v>
       </c>
       <c r="E162" s="4">
-        <v>599420</v>
+        <v>601628</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>51736</v>
+        <v>52041</v>
       </c>
       <c r="C164" s="4">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="D164" s="4">
-        <v>15951</v>
+        <v>16003</v>
       </c>
       <c r="E164" s="4">
-        <v>69406</v>
+        <v>69765</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="C165" s="4">
         <v>29</v>
       </c>
       <c r="D165" s="4">
-        <v>2437</v>
+        <v>2476</v>
       </c>
       <c r="E165" s="4">
-        <v>4926</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>84752</v>
+        <v>85098</v>
       </c>
       <c r="C166" s="4">
-        <v>11454</v>
+        <v>11511</v>
       </c>
       <c r="D166" s="4">
-        <v>87164</v>
+        <v>87450</v>
       </c>
       <c r="E166" s="4">
-        <v>183370</v>
+        <v>184059</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>26274</v>
+        <v>26339</v>
       </c>
       <c r="C167" s="4">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="D167" s="4">
-        <v>14323</v>
+        <v>14503</v>
       </c>
       <c r="E167" s="4">
-        <v>41933</v>
+        <v>42180</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>8898</v>
+        <v>8997</v>
       </c>
       <c r="C168" s="4">
         <v>137</v>
       </c>
       <c r="D168" s="4">
-        <v>2866</v>
+        <v>2878</v>
       </c>
       <c r="E168" s="4">
-        <v>11901</v>
+        <v>12012</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>8992</v>
+        <v>8997</v>
       </c>
       <c r="C169" s="4">
         <v>84</v>
       </c>
       <c r="D169" s="4">
-        <v>7347</v>
+        <v>7429</v>
       </c>
       <c r="E169" s="4">
-        <v>16423</v>
+        <v>16510</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>19090</v>
+        <v>19288</v>
       </c>
       <c r="C170" s="4">
-        <v>1305</v>
+        <v>1311</v>
       </c>
       <c r="D170" s="4">
-        <v>9988</v>
+        <v>10003</v>
       </c>
       <c r="E170" s="4">
-        <v>30383</v>
+        <v>30602</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>728008</v>
+        <v>731125</v>
       </c>
       <c r="C171" s="4">
-        <v>48451</v>
+        <v>48516</v>
       </c>
       <c r="D171" s="4">
-        <v>157418</v>
+        <v>158191</v>
       </c>
       <c r="E171" s="4">
-        <v>933877</v>
+        <v>937832</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>11192</v>
+        <v>11226</v>
       </c>
       <c r="C172" s="4">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="D172" s="4">
-        <v>6923</v>
+        <v>6927</v>
       </c>
       <c r="E172" s="4">
-        <v>19365</v>
+        <v>19407</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>9647</v>
+        <v>9688</v>
       </c>
       <c r="C173" s="4">
         <v>820</v>
       </c>
       <c r="D173" s="4">
-        <v>8798</v>
+        <v>8815</v>
       </c>
       <c r="E173" s="4">
-        <v>19265</v>
+        <v>19323</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3995,7 +3995,7 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C174" s="4">
         <v>17</v>
@@ -4004,7 +4004,7 @@
         <v>522</v>
       </c>
       <c r="E174" s="4">
-        <v>1311</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>66263</v>
+        <v>66515</v>
       </c>
       <c r="C175" s="4">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="D175" s="4">
-        <v>22612</v>
+        <v>22774</v>
       </c>
       <c r="E175" s="4">
-        <v>93273</v>
+        <v>93688</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>42303</v>
+        <v>42365</v>
       </c>
       <c r="C176" s="4">
-        <v>2065</v>
+        <v>2070</v>
       </c>
       <c r="D176" s="4">
-        <v>34293</v>
+        <v>34467</v>
       </c>
       <c r="E176" s="4">
-        <v>78661</v>
+        <v>78902</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>7308</v>
+        <v>7357</v>
       </c>
       <c r="C177" s="4">
         <v>932</v>
       </c>
       <c r="D177" s="4">
-        <v>5605</v>
+        <v>5617</v>
       </c>
       <c r="E177" s="4">
-        <v>13845</v>
+        <v>13906</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>10238</v>
+        <v>10244</v>
       </c>
       <c r="C178" s="4">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D178" s="4">
-        <v>8123</v>
+        <v>8138</v>
       </c>
       <c r="E178" s="4">
-        <v>18595</v>
+        <v>18617</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>372008</v>
+        <v>373543</v>
       </c>
       <c r="C179" s="4">
-        <v>53154</v>
+        <v>53169</v>
       </c>
       <c r="D179" s="4">
-        <v>179014</v>
+        <v>180350</v>
       </c>
       <c r="E179" s="4">
-        <v>604176</v>
+        <v>607062</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4100,13 +4100,13 @@
         <v>1663</v>
       </c>
       <c r="C180" s="4">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="D180" s="4">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="E180" s="4">
-        <v>3457</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="C181" s="4">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D181" s="4">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="E181" s="4">
-        <v>2925</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>55407</v>
+        <v>55589</v>
       </c>
       <c r="C182" s="4">
         <v>7168</v>
       </c>
       <c r="D182" s="4">
-        <v>31261</v>
+        <v>31358</v>
       </c>
       <c r="E182" s="4">
-        <v>93836</v>
+        <v>94115</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>25824</v>
+        <v>26020</v>
       </c>
       <c r="C183" s="4">
-        <v>1125</v>
+        <v>1131</v>
       </c>
       <c r="D183" s="4">
-        <v>13591</v>
+        <v>13602</v>
       </c>
       <c r="E183" s="4">
-        <v>40540</v>
+        <v>40753</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>14980</v>
+        <v>15035</v>
       </c>
       <c r="C184" s="4">
         <v>1342</v>
       </c>
       <c r="D184" s="4">
-        <v>9939</v>
+        <v>10051</v>
       </c>
       <c r="E184" s="4">
-        <v>26261</v>
+        <v>26428</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>139584</v>
+        <v>140224</v>
       </c>
       <c r="C185" s="4">
-        <v>7937</v>
+        <v>7948</v>
       </c>
       <c r="D185" s="4">
-        <v>42409</v>
+        <v>42576</v>
       </c>
       <c r="E185" s="4">
-        <v>189930</v>
+        <v>190748</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>3358</v>
+        <v>3380</v>
       </c>
       <c r="C186" s="4">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D186" s="4">
-        <v>3891</v>
+        <v>3926</v>
       </c>
       <c r="E186" s="4">
-        <v>7630</v>
+        <v>7688</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>14985</v>
+        <v>14993</v>
       </c>
       <c r="C187" s="4">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D187" s="4">
-        <v>4883</v>
+        <v>4891</v>
       </c>
       <c r="E187" s="4">
-        <v>20032</v>
+        <v>20051</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>58025</v>
+        <v>58292</v>
       </c>
       <c r="C188" s="4">
         <v>2938</v>
       </c>
       <c r="D188" s="4">
-        <v>22811</v>
+        <v>23052</v>
       </c>
       <c r="E188" s="4">
-        <v>83774</v>
+        <v>84282</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>119169</v>
+        <v>119374</v>
       </c>
       <c r="C189" s="4">
-        <v>10098</v>
+        <v>10141</v>
       </c>
       <c r="D189" s="4">
-        <v>48921</v>
+        <v>49093</v>
       </c>
       <c r="E189" s="4">
-        <v>178188</v>
+        <v>178608</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>8001</v>
+        <v>8010</v>
       </c>
       <c r="C190" s="4">
         <v>62</v>
       </c>
       <c r="D190" s="4">
-        <v>2402</v>
+        <v>2404</v>
       </c>
       <c r="E190" s="4">
-        <v>10465</v>
+        <v>10476</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>5910</v>
+        <v>5945</v>
       </c>
       <c r="C191" s="4">
         <v>496</v>
       </c>
       <c r="D191" s="4">
-        <v>3690</v>
+        <v>3731</v>
       </c>
       <c r="E191" s="4">
-        <v>10096</v>
+        <v>10172</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>88206</v>
+        <v>88430</v>
       </c>
       <c r="C192" s="4">
-        <v>20637</v>
+        <v>20719</v>
       </c>
       <c r="D192" s="4">
-        <v>44021</v>
+        <v>44095</v>
       </c>
       <c r="E192" s="4">
-        <v>152864</v>
+        <v>153244</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4318,16 +4318,16 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="C193" s="4">
         <v>47</v>
       </c>
       <c r="D193" s="4">
-        <v>1258</v>
+        <v>1265</v>
       </c>
       <c r="E193" s="4">
-        <v>2533</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>2791</v>
+        <v>2796</v>
       </c>
       <c r="C194" s="4">
         <v>130</v>
       </c>
       <c r="D194" s="4">
-        <v>1723</v>
+        <v>1750</v>
       </c>
       <c r="E194" s="4">
-        <v>4644</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>8609</v>
+        <v>8642</v>
       </c>
       <c r="C195" s="4">
         <v>757</v>
       </c>
       <c r="D195" s="4">
-        <v>9192</v>
+        <v>9280</v>
       </c>
       <c r="E195" s="4">
-        <v>18558</v>
+        <v>18679</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>13384</v>
+        <v>13499</v>
       </c>
       <c r="C196" s="4">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D196" s="4">
-        <v>96661</v>
+        <v>96669</v>
       </c>
       <c r="E196" s="4">
-        <v>110579</v>
+        <v>110706</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>6165</v>
+        <v>6217</v>
       </c>
       <c r="C197" s="4">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D197" s="4">
-        <v>8415</v>
+        <v>8419</v>
       </c>
       <c r="E197" s="4">
-        <v>15095</v>
+        <v>15153</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4403,7 +4403,7 @@
         <v>201</v>
       </c>
       <c r="B198" s="4">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C198" s="4">
         <v>125</v>
@@ -4412,7 +4412,7 @@
         <v>111</v>
       </c>
       <c r="E198" s="4">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>19904</v>
+        <v>19962</v>
       </c>
       <c r="C199" s="4">
         <v>570</v>
       </c>
       <c r="D199" s="4">
-        <v>13993</v>
+        <v>14009</v>
       </c>
       <c r="E199" s="4">
-        <v>34467</v>
+        <v>34541</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>117514</v>
+        <v>117929</v>
       </c>
       <c r="C200" s="4">
-        <v>8132</v>
+        <v>8146</v>
       </c>
       <c r="D200" s="4">
-        <v>22330</v>
+        <v>22625</v>
       </c>
       <c r="E200" s="4">
-        <v>147976</v>
+        <v>148700</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>8280</v>
+        <v>8284</v>
       </c>
       <c r="C201" s="4">
         <v>246</v>
       </c>
       <c r="D201" s="4">
-        <v>8134</v>
+        <v>8150</v>
       </c>
       <c r="E201" s="4">
-        <v>16660</v>
+        <v>16680</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>36484</v>
+        <v>36649</v>
       </c>
       <c r="C202" s="4">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="D202" s="4">
-        <v>10757</v>
+        <v>10798</v>
       </c>
       <c r="E202" s="4">
-        <v>49747</v>
+        <v>49955</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>11038</v>
+        <v>11111</v>
       </c>
       <c r="C203" s="4">
         <v>756</v>
       </c>
       <c r="D203" s="4">
-        <v>5158</v>
+        <v>5169</v>
       </c>
       <c r="E203" s="4">
-        <v>16952</v>
+        <v>17036</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>10409</v>
+        <v>10429</v>
       </c>
       <c r="C204" s="4">
         <v>293</v>
       </c>
       <c r="D204" s="4">
-        <v>9161</v>
+        <v>9249</v>
       </c>
       <c r="E204" s="4">
-        <v>19863</v>
+        <v>19971</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>32588</v>
+        <v>32730</v>
       </c>
       <c r="C205" s="4">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="D205" s="4">
-        <v>10899</v>
+        <v>10953</v>
       </c>
       <c r="E205" s="4">
-        <v>45990</v>
+        <v>46188</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>56429</v>
+        <v>56696</v>
       </c>
       <c r="C206" s="4">
-        <v>9985</v>
+        <v>9989</v>
       </c>
       <c r="D206" s="4">
-        <v>45905</v>
+        <v>46066</v>
       </c>
       <c r="E206" s="4">
-        <v>112319</v>
+        <v>112751</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>5614</v>
+        <v>5616</v>
       </c>
       <c r="C207" s="4">
         <v>135</v>
       </c>
       <c r="D207" s="4">
-        <v>4241</v>
+        <v>4291</v>
       </c>
       <c r="E207" s="4">
-        <v>9990</v>
+        <v>10042</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,16 +4573,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="C208" s="4">
         <v>25</v>
       </c>
       <c r="D208" s="4">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E208" s="4">
-        <v>2229</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>29902</v>
+        <v>29915</v>
       </c>
       <c r="C209" s="4">
         <v>350</v>
       </c>
       <c r="D209" s="4">
-        <v>4718</v>
+        <v>4738</v>
       </c>
       <c r="E209" s="4">
-        <v>34970</v>
+        <v>35003</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C210" s="4">
         <v>97</v>
       </c>
       <c r="D210" s="4">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="E210" s="4">
-        <v>2658</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>22272</v>
+        <v>22338</v>
       </c>
       <c r="C211" s="4">
         <v>1448</v>
       </c>
       <c r="D211" s="4">
-        <v>10266</v>
+        <v>10426</v>
       </c>
       <c r="E211" s="4">
-        <v>33986</v>
+        <v>34212</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4641,16 +4641,16 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C212" s="4">
         <v>177</v>
       </c>
       <c r="D212" s="4">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E212" s="4">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>297251</v>
+        <v>297905</v>
       </c>
       <c r="C213" s="4">
-        <v>15065</v>
+        <v>15069</v>
       </c>
       <c r="D213" s="4">
-        <v>104337</v>
+        <v>104877</v>
       </c>
       <c r="E213" s="4">
-        <v>416653</v>
+        <v>417851</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>9081</v>
+        <v>9192</v>
       </c>
       <c r="C214" s="4">
         <v>449</v>
       </c>
       <c r="D214" s="4">
-        <v>8606</v>
+        <v>8608</v>
       </c>
       <c r="E214" s="4">
-        <v>18136</v>
+        <v>18249</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>83004</v>
+        <v>83125</v>
       </c>
       <c r="C215" s="4">
         <v>899</v>
       </c>
       <c r="D215" s="4">
-        <v>37509</v>
+        <v>37522</v>
       </c>
       <c r="E215" s="4">
-        <v>121412</v>
+        <v>121546</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>6208</v>
+        <v>6212</v>
       </c>
       <c r="C216" s="4">
         <v>170</v>
       </c>
       <c r="D216" s="4">
-        <v>7561</v>
+        <v>7574</v>
       </c>
       <c r="E216" s="4">
-        <v>13939</v>
+        <v>13956</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4726,16 +4726,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C217" s="4">
         <v>25</v>
       </c>
       <c r="D217" s="4">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E217" s="4">
-        <v>1822</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4749,10 +4749,10 @@
         <v>10</v>
       </c>
       <c r="D218" s="4">
-        <v>1573</v>
+        <v>1595</v>
       </c>
       <c r="E218" s="4">
-        <v>1776</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4766,10 +4766,10 @@
         <v>47</v>
       </c>
       <c r="D219" s="4">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="E219" s="4">
-        <v>3000</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>8609</v>
+        <v>8621</v>
       </c>
       <c r="C220" s="4">
         <v>463</v>
       </c>
       <c r="D220" s="4">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="E220" s="4">
-        <v>11540</v>
+        <v>11554</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>2888436</v>
+        <v>2901672</v>
       </c>
       <c r="C221" s="4">
-        <v>117527</v>
+        <v>117687</v>
       </c>
       <c r="D221" s="4">
-        <v>635734</v>
+        <v>639124</v>
       </c>
       <c r="E221" s="4">
-        <v>3641697</v>
+        <v>3658483</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>118855</v>
+        <v>119077</v>
       </c>
       <c r="C222" s="4">
-        <v>4642</v>
+        <v>4644</v>
       </c>
       <c r="D222" s="4">
-        <v>154187</v>
+        <v>155899</v>
       </c>
       <c r="E222" s="4">
-        <v>277684</v>
+        <v>279620</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>6091</v>
+        <v>6099</v>
       </c>
       <c r="C224" s="4">
         <v>138</v>
       </c>
       <c r="D224" s="4">
-        <v>4196</v>
+        <v>4206</v>
       </c>
       <c r="E224" s="4">
-        <v>10425</v>
+        <v>10443</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4862,16 +4862,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C225" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D225" s="4">
-        <v>887</v>
+        <v>973</v>
       </c>
       <c r="E225" s="4">
-        <v>1426</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>34806</v>
+        <v>34899</v>
       </c>
       <c r="C226" s="4">
         <v>1470</v>
       </c>
       <c r="D226" s="4">
-        <v>10013</v>
+        <v>10019</v>
       </c>
       <c r="E226" s="4">
-        <v>46289</v>
+        <v>46388</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>102700</v>
+        <v>102886</v>
       </c>
       <c r="C227" s="4">
-        <v>3264</v>
+        <v>3266</v>
       </c>
       <c r="D227" s="4">
-        <v>139221</v>
+        <v>139313</v>
       </c>
       <c r="E227" s="4">
-        <v>245185</v>
+        <v>245465</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>1970136</v>
+        <v>1981081</v>
       </c>
       <c r="C228" s="4">
-        <v>84696</v>
+        <v>84746</v>
       </c>
       <c r="D228" s="4">
-        <v>471541</v>
+        <v>476650</v>
       </c>
       <c r="E228" s="4">
-        <v>2526373</v>
+        <v>2542477</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>18671</v>
+        <v>18708</v>
       </c>
       <c r="C229" s="4">
         <v>625</v>
       </c>
       <c r="D229" s="4">
-        <v>8788</v>
+        <v>8855</v>
       </c>
       <c r="E229" s="4">
-        <v>28084</v>
+        <v>28188</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>16960</v>
+        <v>17045</v>
       </c>
       <c r="C230" s="4">
         <v>1120</v>
       </c>
       <c r="D230" s="4">
-        <v>11320</v>
+        <v>11374</v>
       </c>
       <c r="E230" s="4">
-        <v>29400</v>
+        <v>29539</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>16691</v>
+        <v>16724</v>
       </c>
       <c r="C231" s="4">
-        <v>2550</v>
+        <v>2554</v>
       </c>
       <c r="D231" s="4">
-        <v>10161</v>
+        <v>10211</v>
       </c>
       <c r="E231" s="4">
-        <v>29402</v>
+        <v>29489</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C232" s="4">
         <v>102</v>
       </c>
       <c r="D232" s="4">
-        <v>4251</v>
+        <v>4253</v>
       </c>
       <c r="E232" s="4">
-        <v>5637</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>44508</v>
+        <v>44576</v>
       </c>
       <c r="C233" s="4">
         <v>614</v>
       </c>
       <c r="D233" s="4">
-        <v>5118</v>
+        <v>5170</v>
       </c>
       <c r="E233" s="4">
-        <v>50240</v>
+        <v>50360</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>67548</v>
+        <v>67744</v>
       </c>
       <c r="C234" s="4">
         <v>1356</v>
       </c>
       <c r="D234" s="4">
-        <v>35625</v>
+        <v>35740</v>
       </c>
       <c r="E234" s="4">
-        <v>104529</v>
+        <v>104840</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>34247</v>
+        <v>34368</v>
       </c>
       <c r="C235" s="4">
         <v>2446</v>
       </c>
       <c r="D235" s="4">
-        <v>22736</v>
+        <v>22896</v>
       </c>
       <c r="E235" s="4">
-        <v>59429</v>
+        <v>59710</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>76014</v>
+        <v>76658</v>
       </c>
       <c r="C236" s="4">
-        <v>5495</v>
+        <v>5497</v>
       </c>
       <c r="D236" s="4">
-        <v>34449</v>
+        <v>34555</v>
       </c>
       <c r="E236" s="4">
-        <v>115958</v>
+        <v>116710</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>174551</v>
+        <v>174842</v>
       </c>
       <c r="C237" s="4">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="D237" s="4">
-        <v>49828</v>
+        <v>49950</v>
       </c>
       <c r="E237" s="4">
-        <v>227698</v>
+        <v>228112</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>64119</v>
+        <v>64334</v>
       </c>
       <c r="C238" s="4">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c r="D238" s="4">
-        <v>12431</v>
+        <v>12524</v>
       </c>
       <c r="E238" s="4">
-        <v>78930</v>
+        <v>79240</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>6040</v>
+        <v>6062</v>
       </c>
       <c r="C239" s="4">
         <v>237</v>
       </c>
       <c r="D239" s="4">
-        <v>2670</v>
+        <v>2673</v>
       </c>
       <c r="E239" s="4">
-        <v>8947</v>
+        <v>8972</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>57692</v>
+        <v>57826</v>
       </c>
       <c r="C240" s="4">
         <v>2079</v>
       </c>
       <c r="D240" s="4">
-        <v>29439</v>
+        <v>30009</v>
       </c>
       <c r="E240" s="4">
-        <v>89210</v>
+        <v>89914</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>556385</v>
+        <v>558296</v>
       </c>
       <c r="C241" s="4">
-        <v>7161</v>
+        <v>7163</v>
       </c>
       <c r="D241" s="4">
-        <v>151158</v>
+        <v>151556</v>
       </c>
       <c r="E241" s="4">
-        <v>714704</v>
+        <v>717015</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>50751</v>
+        <v>50898</v>
       </c>
       <c r="C242" s="4">
         <v>2619</v>
       </c>
       <c r="D242" s="4">
-        <v>14581</v>
+        <v>14650</v>
       </c>
       <c r="E242" s="4">
-        <v>67951</v>
+        <v>68167</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5171,13 +5171,13 @@
         <v>2610</v>
       </c>
       <c r="C243" s="4">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D243" s="4">
-        <v>4944</v>
+        <v>4964</v>
       </c>
       <c r="E243" s="4">
-        <v>8084</v>
+        <v>8106</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>160524</v>
+        <v>161182</v>
       </c>
       <c r="C244" s="4">
-        <v>11802</v>
+        <v>11835</v>
       </c>
       <c r="D244" s="4">
-        <v>77983</v>
+        <v>78563</v>
       </c>
       <c r="E244" s="4">
-        <v>250309</v>
+        <v>251580</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>18983</v>
+        <v>19094</v>
       </c>
       <c r="C245" s="4">
         <v>845</v>
       </c>
       <c r="D245" s="4">
-        <v>31239</v>
+        <v>31838</v>
       </c>
       <c r="E245" s="4">
-        <v>51067</v>
+        <v>51777</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>48800</v>
+        <v>49115</v>
       </c>
       <c r="C246" s="4">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D246" s="4">
-        <v>8915</v>
+        <v>8942</v>
       </c>
       <c r="E246" s="4">
-        <v>57958</v>
+        <v>58302</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>859387</v>
+        <v>863263</v>
       </c>
       <c r="C247" s="4">
-        <v>37209</v>
+        <v>37231</v>
       </c>
       <c r="D247" s="4">
-        <v>219755</v>
+        <v>221196</v>
       </c>
       <c r="E247" s="4">
-        <v>1116351</v>
+        <v>1121690</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>55191</v>
+        <v>55460</v>
       </c>
       <c r="C248" s="4">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="D248" s="4">
-        <v>24476</v>
+        <v>24586</v>
       </c>
       <c r="E248" s="4">
-        <v>81276</v>
+        <v>81657</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>1909</v>
+        <v>1933</v>
       </c>
       <c r="C249" s="4">
         <v>74</v>
       </c>
       <c r="D249" s="4">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="E249" s="4">
-        <v>2786</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>77814</v>
+        <v>78166</v>
       </c>
       <c r="C250" s="4">
-        <v>4085</v>
+        <v>4088</v>
       </c>
       <c r="D250" s="4">
-        <v>17529</v>
+        <v>17629</v>
       </c>
       <c r="E250" s="4">
-        <v>99428</v>
+        <v>99883</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>30252</v>
+        <v>30323</v>
       </c>
       <c r="C251" s="4">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="D251" s="4">
-        <v>19239</v>
+        <v>19356</v>
       </c>
       <c r="E251" s="4">
-        <v>51895</v>
+        <v>52084</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>3012</v>
+        <v>3015</v>
       </c>
       <c r="C252" s="4">
         <v>175</v>
       </c>
       <c r="D252" s="4">
-        <v>2309</v>
+        <v>2312</v>
       </c>
       <c r="E252" s="4">
-        <v>5496</v>
+        <v>5502</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>11507</v>
+        <v>11598</v>
       </c>
       <c r="C253" s="4">
         <v>712</v>
       </c>
       <c r="D253" s="4">
-        <v>6398</v>
+        <v>6408</v>
       </c>
       <c r="E253" s="4">
-        <v>18617</v>
+        <v>18718</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>18692</v>
+        <v>18702</v>
       </c>
       <c r="C254" s="4">
         <v>164</v>
       </c>
       <c r="D254" s="4">
-        <v>18279</v>
+        <v>18322</v>
       </c>
       <c r="E254" s="4">
-        <v>37135</v>
+        <v>37188</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>14569</v>
+        <v>14620</v>
       </c>
       <c r="C255" s="4">
         <v>271</v>
       </c>
       <c r="D255" s="4">
-        <v>2948</v>
+        <v>2962</v>
       </c>
       <c r="E255" s="4">
-        <v>17788</v>
+        <v>17853</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>322438</v>
+        <v>326092</v>
       </c>
       <c r="C256" s="4">
-        <v>14438</v>
+        <v>14441</v>
       </c>
       <c r="D256" s="4">
-        <v>17470</v>
+        <v>17514</v>
       </c>
       <c r="E256" s="4">
-        <v>354346</v>
+        <v>358047</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>41608294</v>
+        <v>41801725</v>
       </c>
       <c r="C257" s="4">
-        <v>1754969</v>
+        <v>1756637</v>
       </c>
       <c r="D257" s="4">
-        <v>10876791</v>
+        <v>10942951</v>
       </c>
       <c r="E257" s="4">
-        <v>54240054</v>
+        <v>54501313</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
